--- a/data/0.reference/2.look_ups/SNNP/weredas_field.xlsx
+++ b/data/0.reference/2.look_ups/SNNP/weredas_field.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Region</t>
   </si>
@@ -38,10 +38,7 @@
     <t xml:space="preserve">enimore ena ener</t>
   </si>
   <si>
-    <t xml:space="preserve">misrak meskan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">missing</t>
+    <t xml:space="preserve">meskan</t>
   </si>
   <si>
     <t xml:space="preserve">hadiya</t>
@@ -59,18 +56,6 @@
     <t xml:space="preserve">soro</t>
   </si>
   <si>
-    <t xml:space="preserve">halaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atoti hullo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wera dijjo</t>
-  </si>
-  <si>
     <t xml:space="preserve">kembata tembaro</t>
   </si>
   <si>
@@ -102,6 +87,12 @@
   </si>
   <si>
     <t xml:space="preserve">silti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">siltie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alaba special</t>
   </si>
   <si>
     <t xml:space="preserve">wolaita</t>
@@ -511,10 +502,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -522,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -533,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -544,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -555,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -566,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -577,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -588,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -643,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -654,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -665,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -676,10 +667,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -687,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
@@ -698,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -709,43 +700,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
